--- a/myapp/files/9_MethodComparePercent/Scenario 313.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 313.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11116</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.95856980003771</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1700</v>
+        <v>16442</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8578422801189</v>
+        <v>2.89697774849046</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.17391304347826</v>
+        <v>1.90114068441065</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>8969</v>
+        <v>23000</v>
       </c>
       <c r="F4" t="n">
-        <v>9.80175730022731</v>
+        <v>4.05245640525974</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>10.8695652173913</v>
+        <v>3.42205323193916</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>6439</v>
+        <v>30875</v>
       </c>
       <c r="F5" t="n">
-        <v>7.03685084805036</v>
+        <v>5.43998223966932</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -707,10 +707,10 @@
         <v>5.79710144927536</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>8.69565217391304</v>
+        <v>6.08365019011407</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>4419</v>
+        <v>35357</v>
       </c>
       <c r="F6" t="n">
-        <v>4.82929707990907</v>
+        <v>6.22968265742472</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -745,10 +745,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J6" t="n">
-        <v>6.52173913043478</v>
+        <v>6.08365019011407</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6116</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.07760101628559</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.14068441064639</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>17521</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.08709081202417</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.6615969581749</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>130</v>
+        <v>20432</v>
       </c>
       <c r="F9" t="n">
-        <v>0.142070292009092</v>
+        <v>3.59999083792465</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
-        <v>2.17391304347826</v>
+        <v>5.32319391634981</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>8487</v>
+        <v>44070</v>
       </c>
       <c r="F10" t="n">
-        <v>9.2750043713936</v>
+        <v>7.76485885999115</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>5.79710144927536</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>6.52173913043478</v>
+        <v>9.1254752851711</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2698</v>
+        <v>29837</v>
       </c>
       <c r="F11" t="n">
-        <v>2.9485049833887</v>
+        <v>5.25709312016238</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -935,10 +935,10 @@
         <v>5.79710144927536</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J11" t="n">
-        <v>4.34782608695652</v>
+        <v>7.98479087452471</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3628</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.639230949490536</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20463</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.60545284438391</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.6615969581749</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>3103</v>
+        <v>41162</v>
       </c>
       <c r="F14" t="n">
-        <v>3.39110858541703</v>
+        <v>7.25248741536092</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.69565217391304</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>4.34782608695652</v>
+        <v>6.4638783269962</v>
       </c>
       <c r="K14" t="n">
         <v>3</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>14687</v>
+        <v>52088</v>
       </c>
       <c r="F15" t="n">
-        <v>16.0506644518272</v>
+        <v>9.17758040161605</v>
       </c>
       <c r="G15" t="n">
         <v>11</v>
@@ -1087,10 +1087,10 @@
         <v>15.9420289855072</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>13.0434782608696</v>
+        <v>7.60456273764258</v>
       </c>
       <c r="K15" t="n">
         <v>10</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>7961</v>
+        <v>32469</v>
       </c>
       <c r="F16" t="n">
-        <v>8.70016611295681</v>
+        <v>5.72083508792949</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -1125,10 +1125,10 @@
         <v>14.4927536231884</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>10.8695652173913</v>
+        <v>6.84410646387833</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2496</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.439779616849057</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.380228136882129</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>7402</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.30418618746663</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.90114068441065</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>140</v>
+        <v>26559</v>
       </c>
       <c r="F19" t="n">
-        <v>0.152998776009792</v>
+        <v>4.67952998553449</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>7.2463768115942</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>2.17391304347826</v>
+        <v>4.56273764258555</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>22470</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.95907371418201</v>
       </c>
       <c r="G20" t="n">
         <v>12</v>
@@ -1277,10 +1277,10 @@
         <v>17.3913043478261</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>4.94296577946768</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>22282</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.92594928791293</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1315,10 +1315,10 @@
         <v>5.79710144927536</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4.94296577946768</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>5152</v>
+        <v>8272</v>
       </c>
       <c r="F22" t="n">
-        <v>5.63035495716034</v>
+        <v>1.4574747558395</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>4.34782608695652</v>
+        <v>1.14068441064639</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>9720</v>
+        <v>18544</v>
       </c>
       <c r="F23" t="n">
-        <v>10.6224864486798</v>
+        <v>3.26733702517985</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>4.34782608695652</v>
+        <v>1.90114068441065</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>7982</v>
+        <v>23525</v>
       </c>
       <c r="F24" t="n">
-        <v>8.72311592935828</v>
+        <v>4.14495812755371</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>8.69565217391304</v>
+        <v>3.42205323193916</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>6590</v>
+        <v>21418</v>
       </c>
       <c r="F25" t="n">
-        <v>7.20187095646092</v>
+        <v>3.77371788208057</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,16 +1467,16 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>6.52173913043478</v>
+        <v>4.18250950570342</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.89855072463768</v>
+        <v>1.44927536231884</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>3327</v>
+        <v>30013</v>
       </c>
       <c r="F26" t="n">
-        <v>3.6359066270327</v>
+        <v>5.28810322135045</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>4.34782608695652</v>
+        <v>3.80228136882129</v>
       </c>
       <c r="K26" t="n">
         <v>7</v>
